--- a/chao.xlsx
+++ b/chao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Bernal\Bernal_ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDAF50-E876-42E3-A20A-E80BC78753C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92733602-062A-46A8-9EB5-1B6057B87D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">lista de útiles </t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>1,75 $</t>
+  </si>
+  <si>
+    <t>Ankin Skywalker</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Obi Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
   </si>
 </sst>
 </file>
@@ -389,59 +404,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
